--- a/biology/Botanique/Labyrinthe_de_maïs/Labyrinthe_de_maïs.xlsx
+++ b/biology/Botanique/Labyrinthe_de_maïs/Labyrinthe_de_maïs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Labyrinthe_de_ma%C3%AFs</t>
+          <t>Labyrinthe_de_maïs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un labyrinthe de maïs est un labyrinthe taillé dans un champ de maïs.
 Ce sont des attractions touristiques populaires en Amérique du Nord et ils permettent aux exploitations agricoles de générer des revenus touristiques.
-Depuis 2022, le détenteur du record guinness du plus grand labyrinthe de maïs est Luc Pelletier. Le Grand labyrinthe Kamouraska est situé à La Pocatière Québec Canada[1]. 
+Depuis 2022, le détenteur du record guinness du plus grand labyrinthe de maïs est Luc Pelletier. Le Grand labyrinthe Kamouraska est situé à La Pocatière Québec Canada. 
 			Un labyrinthe de maïs sur le thème de la piraterie près de Delingsdorf.
 			Un autre labyrinthe de maïs près de Delingsdorf.
 			Un autre labyrinthe de maïs près de Cawthorn (en).
